--- a/biology/Zoologie/Elapotinus_picteti/Elapotinus_picteti.xlsx
+++ b/biology/Zoologie/Elapotinus_picteti/Elapotinus_picteti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elapotinus picteti, unique représentant du genre Elapotinus, est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elapotinus picteti, unique représentant du genre Elapotinus, est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus grande femelle[2] connue au moment de la description de Pararhadinaea albignaci mesurait 416 mm et le plus grand mâle 291 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande femelle connue au moment de la description de Pararhadinaea albignaci mesurait 416 mm et le plus grand mâle 291 mm.
 C'est un serpent venimeux.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Exallodontophis[2] a été placé en synonymie avec Elapotinus et l'espèce Exallodontophis albignaci[3] avec Elapotinus picteti par Kucharzewski, Raselimanana, Wang et Glaw en 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Exallodontophis a été placé en synonymie avec Elapotinus et l'espèce Exallodontophis albignaci avec Elapotinus picteti par Kucharzewski, Raselimanana, Wang et Glaw en 2014.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jan, 1862 : Enumerazione sistematico delle specie d'ofidi del gruppo Calamaridae. Archivio per la zoologia, l'anatomia e la fisiologia, vol. 2, p. 1-76 (texte intégral).</t>
         </is>
